--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Wnt8a-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Wnt8a</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Wnt8a</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,43 +543,43 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H2">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I2">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J2">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N2">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O2">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P2">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q2">
-        <v>0.6413402225475554</v>
+        <v>0.6887447434862223</v>
       </c>
       <c r="R2">
-        <v>5.772062002927999</v>
+        <v>6.198702691376001</v>
       </c>
       <c r="S2">
-        <v>0.02785318585435829</v>
+        <v>0.05831971582802717</v>
       </c>
       <c r="T2">
-        <v>0.02881187326726308</v>
+        <v>0.05953501318252052</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,13 +605,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H3">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I3">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J3">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>32.27421</v>
       </c>
       <c r="O3">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P3">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q3">
         <v>2.577432754693333</v>
       </c>
       <c r="R3">
-        <v>23.19689479223999</v>
+        <v>23.19689479224</v>
       </c>
       <c r="S3">
-        <v>0.1119370203515667</v>
+        <v>0.2182450715467004</v>
       </c>
       <c r="T3">
-        <v>0.1157898152530276</v>
+        <v>0.2227929787906938</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,10 +649,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -667,13 +667,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H4">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I4">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J4">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N4">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O4">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P4">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q4">
-        <v>0.8540440441404444</v>
+        <v>1.233231017616</v>
       </c>
       <c r="R4">
-        <v>7.686396397264001</v>
+        <v>11.099079158544</v>
       </c>
       <c r="S4">
-        <v>0.03709083985838375</v>
+        <v>0.1044242924216417</v>
       </c>
       <c r="T4">
-        <v>0.0383674809396673</v>
+        <v>0.1066003415419612</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>25</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H5">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I5">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J5">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N5">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O5">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P5">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q5">
-        <v>0.4373024171533333</v>
+        <v>0.3553029506346667</v>
       </c>
       <c r="R5">
-        <v>2.62381450292</v>
+        <v>2.131817703808</v>
       </c>
       <c r="S5">
-        <v>0.01899189396097598</v>
+        <v>0.0300854087233957</v>
       </c>
       <c r="T5">
-        <v>0.01309705455287725</v>
+        <v>0.02047489634815288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,13 +791,13 @@
         <v>0.2395813333333333</v>
       </c>
       <c r="H6">
-        <v>0.7187439999999999</v>
+        <v>0.718744</v>
       </c>
       <c r="I6">
-        <v>0.2448821336251614</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="J6">
-        <v>0.2467622801952005</v>
+        <v>0.4912748852030529</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N6">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O6">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P6">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q6">
-        <v>1.128472961569777</v>
+        <v>0.9471514196675556</v>
       </c>
       <c r="R6">
-        <v>10.156256654128</v>
+        <v>8.524362777008001</v>
       </c>
       <c r="S6">
-        <v>0.04900919359987667</v>
+        <v>0.08020039668328784</v>
       </c>
       <c r="T6">
-        <v>0.0506960561823652</v>
+        <v>0.0818716553397245</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H7">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I7">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J7">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2.676920666666666</v>
+        <v>2.874784666666667</v>
       </c>
       <c r="N7">
-        <v>8.030761999999999</v>
+        <v>8.624354</v>
       </c>
       <c r="O7">
-        <v>0.1137411923116975</v>
+        <v>0.1187109652550681</v>
       </c>
       <c r="P7">
-        <v>0.1167596329733683</v>
+        <v>0.121184727686443</v>
       </c>
       <c r="Q7">
-        <v>0.2994519457628889</v>
+        <v>0.7132091609995556</v>
       </c>
       <c r="R7">
-        <v>2.695067511866</v>
+        <v>6.418882448996</v>
       </c>
       <c r="S7">
-        <v>0.01300509527790376</v>
+        <v>0.0603912494270409</v>
       </c>
       <c r="T7">
-        <v>0.01345272167194525</v>
+        <v>0.0616497145039225</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H8">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I8">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J8">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,22 +936,22 @@
         <v>32.27421</v>
       </c>
       <c r="O8">
-        <v>0.4571057050773152</v>
+        <v>0.4442422727481699</v>
       </c>
       <c r="P8">
-        <v>0.4692362834442626</v>
+        <v>0.4534996302499962</v>
       </c>
       <c r="Q8">
-        <v>1.203444328503333</v>
+        <v>2.668983930393333</v>
       </c>
       <c r="R8">
-        <v>10.83099895653</v>
+        <v>24.02085537354</v>
       </c>
       <c r="S8">
-        <v>0.05226517434697659</v>
+        <v>0.2259972012014694</v>
       </c>
       <c r="T8">
-        <v>0.05406410553717221</v>
+        <v>0.2307066514593024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H9">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I9">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J9">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.564735333333334</v>
+        <v>5.147441999999999</v>
       </c>
       <c r="N9">
-        <v>10.694206</v>
+        <v>15.442326</v>
       </c>
       <c r="O9">
-        <v>0.1514640505181089</v>
+        <v>0.2125577666737049</v>
       </c>
       <c r="P9">
-        <v>0.1554835727296605</v>
+        <v>0.2169871588243338</v>
       </c>
       <c r="Q9">
-        <v>0.3987667415731111</v>
+        <v>1.277035749036</v>
       </c>
       <c r="R9">
-        <v>3.588900674158</v>
+        <v>11.493321741324</v>
       </c>
       <c r="S9">
-        <v>0.01731830279013749</v>
+        <v>0.1081334742520633</v>
       </c>
       <c r="T9">
-        <v>0.01791438680668746</v>
+        <v>0.1103868172823726</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H10">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I10">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J10">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.8252775</v>
+        <v>1.483016</v>
       </c>
       <c r="N10">
-        <v>3.650555</v>
+        <v>2.966032</v>
       </c>
       <c r="O10">
-        <v>0.07755524537386904</v>
+        <v>0.06123946008548931</v>
       </c>
       <c r="P10">
-        <v>0.05307559381651387</v>
+        <v>0.04167706708575228</v>
       </c>
       <c r="Q10">
-        <v>0.2041834506858333</v>
+        <v>0.3679234167946667</v>
       </c>
       <c r="R10">
-        <v>1.225100704115</v>
+        <v>2.207540500768</v>
       </c>
       <c r="S10">
-        <v>0.008867617218433564</v>
+        <v>0.03115405136209361</v>
       </c>
       <c r="T10">
-        <v>0.006115222984210976</v>
+        <v>0.02120217073759939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,31 +1083,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.1118643333333333</v>
+        <v>0.2480913333333333</v>
       </c>
       <c r="H11">
-        <v>0.335593</v>
+        <v>0.744274</v>
       </c>
       <c r="I11">
-        <v>0.1143393612602941</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="J11">
-        <v>0.1152172315839129</v>
+        <v>0.5087251147969472</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,648 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.710187333333333</v>
+        <v>3.953360666666667</v>
       </c>
       <c r="N11">
-        <v>14.130562</v>
+        <v>11.860082</v>
       </c>
       <c r="O11">
-        <v>0.2001338067190093</v>
+        <v>0.1632495352375677</v>
       </c>
       <c r="P11">
-        <v>0.2054449170361947</v>
+        <v>0.1666514161534747</v>
       </c>
       <c r="Q11">
-        <v>0.5269019659184444</v>
+        <v>0.9807945189408889</v>
       </c>
       <c r="R11">
-        <v>4.742117693266</v>
+        <v>8.827150670468001</v>
       </c>
       <c r="S11">
-        <v>0.02288317162684268</v>
+        <v>0.08304913855427992</v>
       </c>
       <c r="T11">
-        <v>0.02367079458389703</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.5</v>
-      </c>
-      <c r="G12">
-        <v>0.022363</v>
-      </c>
-      <c r="H12">
-        <v>0.044726</v>
-      </c>
-      <c r="I12">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J12">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K12">
-        <v>2</v>
-      </c>
-      <c r="L12">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M12">
-        <v>2.676920666666666</v>
-      </c>
-      <c r="N12">
-        <v>8.030761999999999</v>
-      </c>
-      <c r="O12">
-        <v>0.1137411923116975</v>
-      </c>
-      <c r="P12">
-        <v>0.1167596329733683</v>
-      </c>
-      <c r="Q12">
-        <v>0.05986397686866666</v>
-      </c>
-      <c r="R12">
-        <v>0.359183861212</v>
-      </c>
-      <c r="S12">
-        <v>0.002599871979151191</v>
-      </c>
-      <c r="T12">
-        <v>0.001792905184254211</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.5</v>
-      </c>
-      <c r="G13">
-        <v>0.022363</v>
-      </c>
-      <c r="H13">
-        <v>0.044726</v>
-      </c>
-      <c r="I13">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J13">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>10.75807</v>
-      </c>
-      <c r="N13">
-        <v>32.27421</v>
-      </c>
-      <c r="O13">
-        <v>0.4571057050773152</v>
-      </c>
-      <c r="P13">
-        <v>0.4692362834442626</v>
-      </c>
-      <c r="Q13">
-        <v>0.24058271941</v>
-      </c>
-      <c r="R13">
-        <v>1.44349631646</v>
-      </c>
-      <c r="S13">
-        <v>0.010448424972405</v>
-      </c>
-      <c r="T13">
-        <v>0.007205368360649848</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.5</v>
-      </c>
-      <c r="G14">
-        <v>0.022363</v>
-      </c>
-      <c r="H14">
-        <v>0.044726</v>
-      </c>
-      <c r="I14">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J14">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.564735333333334</v>
-      </c>
-      <c r="N14">
-        <v>10.694206</v>
-      </c>
-      <c r="O14">
-        <v>0.1514640505181089</v>
-      </c>
-      <c r="P14">
-        <v>0.1554835727296605</v>
-      </c>
-      <c r="Q14">
-        <v>0.07971817625933335</v>
-      </c>
-      <c r="R14">
-        <v>0.4783090575560001</v>
-      </c>
-      <c r="S14">
-        <v>0.003462133047732026</v>
-      </c>
-      <c r="T14">
-        <v>0.002387531516795354</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.5</v>
-      </c>
-      <c r="G15">
-        <v>0.022363</v>
-      </c>
-      <c r="H15">
-        <v>0.044726</v>
-      </c>
-      <c r="I15">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J15">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K15">
-        <v>2</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.8252775</v>
-      </c>
-      <c r="N15">
-        <v>3.650555</v>
-      </c>
-      <c r="O15">
-        <v>0.07755524537386904</v>
-      </c>
-      <c r="P15">
-        <v>0.05307559381651387</v>
-      </c>
-      <c r="Q15">
-        <v>0.0408186807325</v>
-      </c>
-      <c r="R15">
-        <v>0.16327472293</v>
-      </c>
-      <c r="S15">
-        <v>0.001772741301420141</v>
-      </c>
-      <c r="T15">
-        <v>0.0008150034809779112</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.5</v>
-      </c>
-      <c r="G16">
-        <v>0.022363</v>
-      </c>
-      <c r="H16">
-        <v>0.044726</v>
-      </c>
-      <c r="I16">
-        <v>0.0228577872827856</v>
-      </c>
-      <c r="J16">
-        <v>0.01535552261168168</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>4.710187333333333</v>
-      </c>
-      <c r="N16">
-        <v>14.130562</v>
-      </c>
-      <c r="O16">
-        <v>0.2001338067190093</v>
-      </c>
-      <c r="P16">
-        <v>0.2054449170361947</v>
-      </c>
-      <c r="Q16">
-        <v>0.1053339193353333</v>
-      </c>
-      <c r="R16">
-        <v>0.632003516012</v>
-      </c>
-      <c r="S16">
-        <v>0.004574615982077244</v>
-      </c>
-      <c r="T16">
-        <v>0.003154714069004355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.604545</v>
-      </c>
-      <c r="H17">
-        <v>1.813635</v>
-      </c>
-      <c r="I17">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J17">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K17">
-        <v>2</v>
-      </c>
-      <c r="L17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M17">
-        <v>2.676920666666666</v>
-      </c>
-      <c r="N17">
-        <v>8.030761999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.1137411923116975</v>
-      </c>
-      <c r="P17">
-        <v>0.1167596329733683</v>
-      </c>
-      <c r="Q17">
-        <v>1.61831900443</v>
-      </c>
-      <c r="R17">
-        <v>14.56487103987</v>
-      </c>
-      <c r="S17">
-        <v>0.07028303920028424</v>
-      </c>
-      <c r="T17">
-        <v>0.07270213284990577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.604545</v>
-      </c>
-      <c r="H18">
-        <v>1.813635</v>
-      </c>
-      <c r="I18">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J18">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>10.75807</v>
-      </c>
-      <c r="N18">
-        <v>32.27421</v>
-      </c>
-      <c r="O18">
-        <v>0.4571057050773152</v>
-      </c>
-      <c r="P18">
-        <v>0.4692362834442626</v>
-      </c>
-      <c r="Q18">
-        <v>6.503737428149999</v>
-      </c>
-      <c r="R18">
-        <v>58.53363685334999</v>
-      </c>
-      <c r="S18">
-        <v>0.2824550854063669</v>
-      </c>
-      <c r="T18">
-        <v>0.2921769942934129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.604545</v>
-      </c>
-      <c r="H19">
-        <v>1.813635</v>
-      </c>
-      <c r="I19">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J19">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>3.564735333333334</v>
-      </c>
-      <c r="N19">
-        <v>10.694206</v>
-      </c>
-      <c r="O19">
-        <v>0.1514640505181089</v>
-      </c>
-      <c r="P19">
-        <v>0.1554835727296605</v>
-      </c>
-      <c r="Q19">
-        <v>2.15504292209</v>
-      </c>
-      <c r="R19">
-        <v>19.39538629881</v>
-      </c>
-      <c r="S19">
-        <v>0.09359277482185564</v>
-      </c>
-      <c r="T19">
-        <v>0.09681417346651035</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>22</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G20">
-        <v>0.604545</v>
-      </c>
-      <c r="H20">
-        <v>1.813635</v>
-      </c>
-      <c r="I20">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J20">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>1.8252775</v>
-      </c>
-      <c r="N20">
-        <v>3.650555</v>
-      </c>
-      <c r="O20">
-        <v>0.07755524537386904</v>
-      </c>
-      <c r="P20">
-        <v>0.05307559381651387</v>
-      </c>
-      <c r="Q20">
-        <v>1.1034623862375</v>
-      </c>
-      <c r="R20">
-        <v>6.620774317424999</v>
-      </c>
-      <c r="S20">
-        <v>0.04792299289303936</v>
-      </c>
-      <c r="T20">
-        <v>0.03304831279844774</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G21">
-        <v>0.604545</v>
-      </c>
-      <c r="H21">
-        <v>1.813635</v>
-      </c>
-      <c r="I21">
-        <v>0.6179207178317588</v>
-      </c>
-      <c r="J21">
-        <v>0.6226649656092049</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>4.710187333333333</v>
-      </c>
-      <c r="N21">
-        <v>14.130562</v>
-      </c>
-      <c r="O21">
-        <v>0.2001338067190093</v>
-      </c>
-      <c r="P21">
-        <v>0.2054449170361947</v>
-      </c>
-      <c r="Q21">
-        <v>2.84752020143</v>
-      </c>
-      <c r="R21">
-        <v>25.62768181287</v>
-      </c>
-      <c r="S21">
-        <v>0.1236668255102127</v>
-      </c>
-      <c r="T21">
-        <v>0.1279233522009282</v>
+        <v>0.08477976081375024</v>
       </c>
     </row>
   </sheetData>
